--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_angel_1_1.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_angel_1_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="911">
   <si>
     <t>zh_CN</t>
   </si>
@@ -936,6 +936,910 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">バン、バンバン！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">タタッ！　バン！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ダダダダ！　バンッ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  シュッシュッ！　バン、バン！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  はい、これで終わり！　無駄弾を撃つこともなく、ちょうど最後の一人でゴム弾も弾切れ！　いやぁ、これぞ正しくエコな戦い方ってやつだよね。キミもそう思うでしょ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  ってかさ、あたし何度も言ってるよね？　ブツは持ってないって。それなのに、行く先々に現れては追いかけてくれちゃってー。ほんと執念深いよね。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="チンピラ"]  クソッ、何がエコな戦い方だ！　バカにしてんのか！？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  あ、手ぇ抜いてることに気づいちゃった？　いや、だってしょうがないじゃん。キミたちをやっつけるのなんて欠伸が出るほど簡単なんだし。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  さて、と……それじゃあ紳士さん。そろそろお開きにしよっか。他に言い残したことがあるなら聞いてあげるけど？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="チンピラ"]  く、来るな……来るなっ！！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  さーん、にー、いーち……はい、時間切れ――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  バン！　ゲームオーバー！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="チンピラ"]  ぐっ……ぁ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  ――全弾命中！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  さっすがあたし！　今日もエイムが冴え渡ってるな～。そんな自分へのご褒美にぃ……アップルパイをもう一枚追加しちゃおっと！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  それじゃ……お仕事に戻りますかー。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  えーっと、本日最後の配達先は……中町12-7の徐飯店……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  ……っと、ごめん！　怪我とかしてない？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="通りすがりの人"]  いえ、大丈夫です。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="通りすがりの人"]  それと、徐飯店なら向こうですよ。逆方向です。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  あ、ほんとだ……ありがと、お兄さん。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="通りすがりの人"]  どういたしまして。同郷の人に会うのは久しぶりでしたから。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  ……ん？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  （今の人って……ラテラーノ人？　見た感じ、トランスポーターっぽかったけど……）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  （だとしたら、ここには手紙の配達とかで来たってところかな？）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  （手紙、ね……あたしも安魂夜の前に、家族に書いてみようかな）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  まあ、便箋ならアジトにあるはずだし……どうせならお土産も買って一緒に送ってあげよーっと。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  そうと決まれば、ちゃっちゃと仕事を終わらせますか。えーと、徐飯店、徐飯店……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  ……あった、ここだ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  ごめんくださーい、ペンギン急便でーす。誰かいますかー？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="龍門の一般市民"]  はいはい、今出ますよ……って、うわっ！　な、なんで人が倒れて……つか……これ、死んでるのか！？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  えへへっ、細かいことはお気になさらず～！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  ――コホン。ペンギン急便の速達便、街の再建を記念して、ただいま出血大サービス中！　本日より三日間、配送料がなんと半額になります！　では、こちら確認お願いします。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="龍門の一般市民"]  ……速達便？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="龍門の一般市民"]  ちょっと待ってくれ。それ、届け先間違えてないか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  はい？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="龍門の一般市民"]  いや、確かに注文はしたけどよ……でも、発注してからまだ数時間しか経ってないんだぞ？　いくらなんでも、こんなに早く届くわけが……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  何言ってるんですか！　数時間も経ってるなら、届かない方がおかしいですよ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  いいですか？　配達業は早さが命なんです！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  というわけで、お届け物は……拡声器に電飾、お祝い用のフラワーバスケットっと。なるほど、開店準備に使うものといったところですかね？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="龍門の一般市民"]  あ、ああ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  開店おめでとーございます！　それでは、お届け物はこれで以上となりますので、ご確認ください。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="龍門の一般市民"]  ……確かに、注文通りだ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="龍門の一般市民"]  まさか、本当に届くなんて……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  嘘なんかつきませんよ！　市内配送なんてちょちょいのちょい、ですから！　まあ、途中で厄介な連中に絡まれなければ、もっと早くお届けできたんですけど……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="龍門の一般市民"]  え？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  ああ、いえ！　なんでもありません！　それでは、お届け物に問題なければサインをお願いしまーす！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  よーし、配達完了！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  では、あたしはこれで失礼しますね～！　ペンギン急便の口コミ、よろしくお願いしまーす！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="龍門の一般市民"]  あっ、おい！　ちょっと！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="龍門の一般市民"]  ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="チンピラ"]  うっ、ぁ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="龍門の一般市民"]  はぁ、まったく……今時の若いやつは……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="龍門の一般市民"]  自分で持ち込んだ「ゴミ」くらい、ちゃんと片付けてから行ってくれよ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  今日の分は全部片付いたことだし……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  本日もお疲れ様でした～っと！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  おーい！　テキサス、クロワッサン、そっちは終わった～？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="テキサス"]  ……ああ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ボスが欲しがっとったブツも、ばっちり回収しといたで！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  にしても、奪いに来た連中がわんさかおったな～。全員片付けたのはえーけど、こんなちっさい箱に何が入っとるんやろ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  案外危ないモノだったりして～。ま、中身がなんであれ、喧嘩売ってきた奴らなんて片っ端から始末すればいいだけなんだけどねー。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  さっ、帰ろ帰ろ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="チンピラ"]  待……て……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="テキサス"]  ん？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="テキサス"]  ……珍しいな。加減でもしたのか、エクシア。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  だって、市内じゃ実弾の使用許可が下りないんだもん。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  それにこいつら、どう見てもマフィアじゃないし……もしここで規則を破って捕まりでもしたら、それこそ面倒なことになりかねないじゃん！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  あくまで街の再建支援が目的、だから面倒事は起こすなと釘を刺されちゃったら……急所を外す以外、手はないってもんでしょ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="テキサス"]  一理あるな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="テキサス"]  ……まあ、半殺し程度であれば、後はここの住民たちが上手く対処してくれるだろう。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  そういえば、エクシアはんが最後に実弾を使ったのって、ロドスからの派遣業務を受けた時やったっけ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  あん時は賑やかやったな～！　あのボスもロドスにはえらい態度よくしてはってん、これからもぜひ依頼を引き受けたい言うとったみたいやで。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  だねー。面白い人たちだったし、ボスが気に入るのもわかるよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="テキサス"]  だが、すぐ揉め事を起こす。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  あはは、ボスってそういうのが大好きだからね！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  たしかに！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  せやけど、派遣業務って面倒そうやな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  あちこち走り回るだけだし、意外と普段あたしらがやってることと変わんないよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  しかも向こうの給料や残業手当は悪くないし、ロドスとペンギン急便の二社から報酬が貰えちゃうんだよ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  二社！？　それ、ホンマか！？　ってことは、ざっくり計算するだけでも……こんくらいは貰えるっちゅうわけか！？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  そんならウチも行くで！　エクシアはん、次はウチも連れてって！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  あははっ、そう言うと思ったよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  ……って、ヤバッ！　もうこんな時間じゃん！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  テキサス、思いっきり飛ばして！　早くアジトに戻らないと間に合わない！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="テキサス"]  ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="テキサス"]  しっかり捕まってろ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ちょ、ちょい待ち！　……よし、つかまった！　もう飛ばしてもええで！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ってか、急に慌ててどないしたん？　それにテキサスはんもテキサスはんや。なんで理由聞かへんの？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="テキサス"]  どうせ子供じみた理由に決まってる。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  あー……それもそうやな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  ちょっと、本人の前で悪口言わないでくれるー？　こっちはめちゃくちゃ大事な用事があるんだから！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  早く戻らないと、オーブンに入れっぱのアップルパイが焦げちゃうんだよ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  それのどこが大事……うわぁあ！？　テキサスはん、急にドリフトせんとって――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エンペラー"]  遅い！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エンペラー"]  こちとらレコードを三枚も流し終えちまったじゃねーか！　途中で足でもつったか？　それとも老眼で視界がぼやけたか？　配達にどんだけ時間かけてんだ！　ああ！？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  あー、よかったー！　あたしのアップルパイ、焦げてなかった！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  うんうん、香り良し、温度もばっちり！　もう完璧！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エンペラー"]  おい！　人の話を聞け！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ボス、ウチらも車カッ飛ばして帰ってきたんやで。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  いやぁ、ほんま途中で交通警察に会わんくてよかったわー。やないと今頃違反切符が送られてきて、テキサスはんの今月の給料がなくなっとったかもしれへん。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  そーだそーだ！　テキサスは給料全額差し出す覚悟で運転してくれたんだから、もう責めないであげてよー！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エンペラー"]  テキサス、お前の言い分は？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エンペラー"]  なんなら、この二人を始末するのに手頃な武器を貸してやってもいいぞ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="テキサス"]  （ため息）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="テキサス"]  結構だ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エンペラー"]  ちっ、つまんねえ奴だ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エンペラー"]  まあいい、俺は太っ腹だからな。お前らのグズグズでダラダラな仕事ぶりも大目に見てやる。……で、例のブツは？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="テキサス"]  ここに。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エンペラー"]  おお、これだこれ！　エクシア、俺の椅子を持ってこい。それと最新式の電子ゴーグルもだ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  あいあいさー！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  にしても、今回は何を回収させたんだろ？　結構重い箱みたいだったし……なんかの機械とかかな？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  あー！　そのコントローラー！　その側面についてるロゴ！　……ウチ、見たことあるで！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  っちゅーことは、これが伝説の……とうの昔に製造中止されたと言われている前前世代のゲーム機か！　そういえば以前、大金持ちが高額で買い付けてるって聞いたことがあんなぁ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エンペラー"]  はん、ゲームか。……そもそも、人生ってのはゲームみてーなもんだろ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エンペラー"]  テキサス、ケーブルを繋げ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="テキサス"]  これか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  おっ、画面に何か映った！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  んー？　見た目は横スクロールのレースゲームっぽいね。どれどれ……これが方向キーで、このボタンが加速か……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  それで、このボタンは……って、なにこれ？　爆弾？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  いや、これは爆弾っちゅーよりも……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エンペラー"]  源石ボムランチャーだ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  それな！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  って、なんでやねーん！　これって障害物を避けながらゴールまで走るゲームじゃないんか？　そんなら普通、爆弾が出てくるなんてあり得へんやろ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エンペラー"]  馬鹿野郎！　ひょろひょろ避けて逃げ回らなけりゃゴールできねえなんて誰が言った？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  あーっ、わかった！　こうやって真っ直ぐ進んで、邪魔してくる奴らを全部吹っ飛ばせばいいってわけね！　良いじゃん良いじゃん。ルールもシンプルだし気に入ったよ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  うん、操作はバッチリ。あ、これ二人でも遊べるみたいだよ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  ボス、どうする？　一緒にやるー？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エンペラー"]  この俺に挑むだと？　勝ちが見えてるゲームなんざに興味ねぇよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エンペラー"]  テキサス、お前が行け。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="テキサス"]  わかった。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  よしっ、弾薬補充完了！　くらえ、あたしの超絶テク！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  うわぁ……前方の建物を全部爆破しとる……さすがやな……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  あははっ！　ビルの一つや二つくらい、ちょろいちょろい！　この調子じゃあたしが勝っちゃうね！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="テキサス"]  （ここでエクシアの車線にボムを撃ちこめば……）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="テキサス"]  ――そこだ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  うわっ！？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  これ、相手の車線も攻撃できるんか！？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="テキサス"]  ルールに反してはいない。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  確かにルール違反ではないね。でも、そっちがその気なら、あたしも容赦しないよ……！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  目には目を、歯には歯をだ！　必中の一撃をくらえ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="テキサス"]  ――！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  うわわわ、今度はプレイヤーに攻撃しよったで！？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  ルールに反してないでしょ？　へへっ、この隙にゴールしてやる！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ……ん？　誰か来たみたいやな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ソラ"]  ヤッホー！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ソラ"]  皆揃って何してるのー？　叫び声が外まで聞こえたから、びっくりしちゃったよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  おう、ソラ！　ほら、こっちの椅子空いとるで。実はな、ボスが古いゲーム機持ってきてん。で、今エクシアはんとテキサスはんがそれで遊んどるっちゅうわけや。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  あんたも一緒にやらへん？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ソラ"]  うーん……あたしはいいや、あんまり得意じゃないし……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ソラ"]  あ、そうそう。ポストに手紙が入ってたから持ってきてあげたよ。今月分の請求書も相当あるっぽいけど……このままでほんとに大丈夫かなぁ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ソラ"]  それと……はい、これはエクシア宛。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  あたし宛？　請求書か果たし状かな？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  あっ、それとも再発行申請してた卒業証書とか……？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  えっ、エクシアはん卒業証書もらってなかったん！？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  もらったに決まってるでしょ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  ただ、この前マフィアとやり合った時、ボスが用意した偽札や偽証明書と一緒に間違えて燃やしちゃったんだよね～……えへへ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="テキサス"]  ……忠告はしたんだがな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  あれ、そうだっけ？　ごめん、聞いてなかった！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ソラ"]  いかにもエクシアがやらかしそうなことだね……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ソラ"]  でも、これは多分……私的な手紙だと思うよ。エクシアが思ってるようなものじゃないかも……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  うーん……どうだろ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  あ、クロワッサン！　コントローラー貸したげるから、代わりにプレイしといて。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  まかしとき！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  どれどれー。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  ……あれ、この手紙……姉ちゃんからだ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  そういえば昼頃、トランスポーターっぽいラテラーノ人に会ったんだよねー。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  うっわぁ……こんなに書いたんだ！？　姉ちゃんってば、どんだけ心配性なんだか……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ソラ"]  エクシアの……お姉ちゃん？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ソラ"]  待って！　エクシアのお姉ちゃんって確か事故に遭ったって……だからエクシアは、モスティマを追いかけて龍門まで来たんだよね……？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  うん、そうだけど？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  あたしの姉ちゃん、何年か前に任務でやらかしちゃってさ……それで意識不明になっちゃって、病院で寝たきりだったんだよね……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ソラ"]  それって……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  でも、あたしがラテラーノを出る頃には目を覚ましたんだ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ソラ"]  ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  あれ？　どうしたの、ソラ。ディスコダンスを踊りながらラブソングを熱唱するボスのコンサートでも見たような顔して。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ソラ"]  ふぇっ！？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ソラ"]  何その例え、怖すぎだよ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ソラ"]  はぁ……何でもない。ただ、心配しすぎた自分がバカらしく思えただけだよ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  あ、もしかして……なんか誤解させちゃったかな？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ソラ"]  うっ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  えっ、うそ！　図星？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  確かに姉ちゃんは重傷だったけどさ、今は順調に回復してるよ。でなきゃ、姉ちゃんを置いて家を飛び出せるわけないじゃん！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ソラ"]  ……まっ、それもそっか。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  でしょ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  ……とはいえ、誤解されちゃうのも無理ないか。でも、あの時は本当に危ないところだったんだよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  全身血塗れで、しかも気絶したまま運ばれてきてさ……当時のあたしも、姉ちゃんがあれほどの怪我を負うとは思いもしなかったよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ソラ"]  ぜ、全身血塗れ！？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  そっ。あたしたちが普段やるような無茶よりも、ずっとヤバかったんだから！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  それまであたしは肝が据わってる方だと思ってたけどさ。けど、あの日は冷や汗が止まらなくて……今だって思い出しただけで手が冷たくなっちゃうくらいだよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  しかも頭に血が上ってたせいで、状況も理解できてなくてさ。とりあえず姉ちゃんを運んできた奴と取っ組み合いを始めようとしたんだよね。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ソラ"]  それは、想像できるなあ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ソラ"]  って、ちょっと待って。その運んできた人って……まさか……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  そう、モスティマだよ。でも姉ちゃんを送ってくれた後、すぐどっかに消えちゃった。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  それに姉ちゃんも姉ちゃんで、目が覚めても何があったのか全然話してくれないし……ほんと困ったもんだよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  でも、あんな姿の姉ちゃんを見た以上、あたしも何があったのか知りたかったからさ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  だから当時のことを聞き出すためにモスティマを追って龍門まで来たんだ。ボスと会ったのはその時だよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ソラ"]  えっと、その、なんて言ったらいいのかな……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ソラ"]  エクシアってモスティマの話になると様子がおかしくなるでしょ。しかもペンギン急便に入った理由も絡んでるって聞いてたし……だから二人の間に恨み辛みでもあるのかなって思ってたんだけど……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  うーん……モスティマが当然のように毎週末姉ちゃんを残業させてたせいで、何度もあたしとの約束をすっぽかされたことが恨みにカウントされるってのなら……確かに恨んでるかも？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ソラ"]  小学生みたいなこと言うね！？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ソラ"]  あ～……ダメだ。エクシアのお姉さんがどんな人なのか、全然想像つかないや。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ソラ"]  もしエクシアみたいなのが二人いたらと思うと、頭が痛くなりそうだよ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  あははっ、残念！　あたしと姉ちゃんはちっとも似てないよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ソラ"]  えっ、そうなの？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  うん。だってあたしたち、血が繋がってないし。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ソラ"]  えええっ！？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  それ、ほんまか！？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  そうだよー……って、なんでクロワッサンまで聞いてるの！？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  いや、だって……エクシアはんが自分のことを話すなんて珍しいもんやから、つい……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  あれ、そうだっけ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  って、今はそれどころじゃないでしょ！　画面に集中して、よそ見禁止！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="テキサス"]  ――遅い。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="テキサス"]  私の勝ちだ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  あーっ！　テキサスはん、隙を見て追い抜かすなんて卑怯やわ！！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  あーあ……負けちゃった。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  （みんな、思った以上にあたしの話に興味があるんだなー）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  （けど、あたし……一度も姉ちゃんのこと話してなかったっけ？）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  （まあ、仮にそうだとしても全然不思議じゃないか。聞かれたこと以外、基本話さないし……）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  （そういえばモスティマの奴、こんなに待ってるのに全然姿を見せないなぁ。まさかボス……嘘ついてないよね？）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  （……ま、いっか。どうせなるようにしかならないし。……それよりも今は、手紙と一緒に送るお菓子について考えないと……）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  うーん……できれば長期保存が利いて、形が崩れにくいお菓子がいいなぁ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ソラ"]  あれ、エクシア。どこに行くの？　ゲームはもういいの？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  うん、そのまま遊んでて。お土産買ったらすぐ戻ってくるから。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  あっ、それとテキサス！　さっきのはノーカンってことで、夜にもう一回勝負ね！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="エクシア"]  へへっ、見てなよ！　今度こそあたしが勝ってみせるんだから！
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pop! Pop! Pop!
 </t>
   </si>
@@ -1308,7 +2212,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Croissant"]  How in tarnation is that important? Woooooooahh! Texas, how fast you cornerin’——? 
+    <t xml:space="preserve">[name="Croissant"]  How in tarnation is that important? Woooooooahh! Texas, how fast you cornerin'——? 
 </t>
   </si>
   <si>
@@ -1908,7 +2812,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="엑시아"]  으음, 오늘의 마지막 주소는…… 미들타운 12-7번지, 아쉬 반점……
+    <t xml:space="preserve">[name="엑시아"]  으음, 오늘의 마지막 주소는…… 센터 스트리트 12-7번지, 아초이 반점……
 </t>
   </si>
   <si>
@@ -1916,11 +2820,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="행인"]  괜찮습니다.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="행인"]  아쉬 반점을 찾는 거라면 저쪽이에요. 반대로 오셨어요.
+    <t xml:space="preserve">[name="행인"]  괜찮아요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="행인"]  아초이 반점을 찾는 거라면 저쪽이에요. 반대로 오셨어요.
 </t>
   </si>
   <si>
@@ -1952,7 +2856,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="엑시아"]  일단 일부터 하자, 일! 아쉬 반점이라……
+    <t xml:space="preserve">[name="엑시아"]  일단 일부터 하자, 일! 아초이 반점이라……
 </t>
   </si>
   <si>
@@ -2272,7 +3176,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="엠퍼러"]  늘어 터진 너희들, 참아야지 내가 늘, 저스트 라잌 중대장의 실망감, 낫 어 스페셜 뉴스! 그래서, 내가 말한 물건은?
+    <t xml:space="preserve">[name="엠퍼러"]  느려 터진 너희들, 참아야지 내가 늘, 저스트 라잌 중대장의 실망감, 낫 어 스페셜 뉴스! 그래서, 내가 말한 물건은?
 </t>
   </si>
   <si>
@@ -2364,7 +3268,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="텍사스"]  명심할게요.
+    <t xml:space="preserve">[name="텍사스"]  그래.
 </t>
   </si>
   <si>
@@ -2444,7 +3348,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="소라"]  게임? 난 됐어, 이런 건 잘 못해서……
+    <t xml:space="preserve">[name="소라"]  게임? 난 됐어, 이런 건 잘 못 해서……
 </t>
   </si>
   <si>
@@ -2728,7 +3632,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="엑시아"]  (……뭐, 됐어. 될 대로 되라지! 어쨌든 답장부터 쓰자……)
+    <t xml:space="preserve">[name="엑시아"]  (……뭐, 됐어. 될 대로 돼라지! 어쨌든 답장부터 쓰자……)
 </t>
   </si>
   <si>
@@ -2744,7 +3648,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="엑시아"]  저녁때 한판 더 붙자, 텍사스! 방금 대결은 무효야!
+    <t xml:space="preserve">[name="엑시아"]  저녁때 한 판 더 붙자, 텍사스! 방금 대결은 무효야!
 </t>
   </si>
   <si>
@@ -3132,13 +4036,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>457</v>
       </c>
       <c r="D2" t="s">
-        <v>458</v>
+        <v>684</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3146,13 +4050,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>232</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>458</v>
       </c>
       <c r="D3" t="s">
-        <v>459</v>
+        <v>685</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3160,13 +4064,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>233</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>459</v>
       </c>
       <c r="D4" t="s">
-        <v>460</v>
+        <v>686</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3174,13 +4078,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>234</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>460</v>
       </c>
       <c r="D5" t="s">
-        <v>461</v>
+        <v>687</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3188,13 +4092,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>235</v>
       </c>
       <c r="C6" t="s">
-        <v>235</v>
+        <v>461</v>
       </c>
       <c r="D6" t="s">
-        <v>462</v>
+        <v>688</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3202,13 +4106,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>236</v>
       </c>
       <c r="C7" t="s">
-        <v>236</v>
+        <v>462</v>
       </c>
       <c r="D7" t="s">
-        <v>463</v>
+        <v>689</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3216,13 +4120,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>237</v>
       </c>
       <c r="C8" t="s">
-        <v>237</v>
+        <v>463</v>
       </c>
       <c r="D8" t="s">
-        <v>464</v>
+        <v>690</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3230,13 +4134,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>238</v>
       </c>
       <c r="C9" t="s">
-        <v>238</v>
+        <v>464</v>
       </c>
       <c r="D9" t="s">
-        <v>465</v>
+        <v>691</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3244,13 +4148,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="C10" t="s">
-        <v>239</v>
+        <v>465</v>
       </c>
       <c r="D10" t="s">
-        <v>466</v>
+        <v>692</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3258,13 +4162,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="C11" t="s">
-        <v>240</v>
+        <v>466</v>
       </c>
       <c r="D11" t="s">
-        <v>467</v>
+        <v>693</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3272,13 +4176,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>241</v>
       </c>
       <c r="C12" t="s">
-        <v>241</v>
+        <v>467</v>
       </c>
       <c r="D12" t="s">
-        <v>468</v>
+        <v>694</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3286,13 +4190,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>242</v>
       </c>
       <c r="C13" t="s">
-        <v>242</v>
+        <v>468</v>
       </c>
       <c r="D13" t="s">
-        <v>469</v>
+        <v>695</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3300,13 +4204,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>243</v>
       </c>
       <c r="C14" t="s">
-        <v>243</v>
+        <v>469</v>
       </c>
       <c r="D14" t="s">
-        <v>470</v>
+        <v>696</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3314,13 +4218,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>244</v>
       </c>
       <c r="C15" t="s">
-        <v>244</v>
+        <v>470</v>
       </c>
       <c r="D15" t="s">
-        <v>471</v>
+        <v>697</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3328,13 +4232,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>245</v>
       </c>
       <c r="C16" t="s">
-        <v>245</v>
+        <v>471</v>
       </c>
       <c r="D16" t="s">
-        <v>472</v>
+        <v>698</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3342,13 +4246,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>246</v>
       </c>
       <c r="C17" t="s">
-        <v>246</v>
+        <v>472</v>
       </c>
       <c r="D17" t="s">
-        <v>473</v>
+        <v>699</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3356,13 +4260,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>247</v>
       </c>
       <c r="C18" t="s">
-        <v>247</v>
+        <v>473</v>
       </c>
       <c r="D18" t="s">
-        <v>474</v>
+        <v>700</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3370,13 +4274,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>248</v>
       </c>
       <c r="C19" t="s">
-        <v>248</v>
+        <v>474</v>
       </c>
       <c r="D19" t="s">
-        <v>475</v>
+        <v>701</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3384,13 +4288,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>249</v>
       </c>
       <c r="C20" t="s">
-        <v>249</v>
+        <v>475</v>
       </c>
       <c r="D20" t="s">
-        <v>476</v>
+        <v>702</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3398,13 +4302,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>250</v>
       </c>
       <c r="C21" t="s">
-        <v>250</v>
+        <v>476</v>
       </c>
       <c r="D21" t="s">
-        <v>477</v>
+        <v>703</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3412,13 +4316,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>251</v>
       </c>
       <c r="C22" t="s">
-        <v>251</v>
+        <v>477</v>
       </c>
       <c r="D22" t="s">
-        <v>478</v>
+        <v>704</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3426,13 +4330,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>252</v>
       </c>
       <c r="C23" t="s">
-        <v>252</v>
+        <v>478</v>
       </c>
       <c r="D23" t="s">
-        <v>479</v>
+        <v>705</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3440,13 +4344,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>253</v>
       </c>
       <c r="C24" t="s">
-        <v>253</v>
+        <v>479</v>
       </c>
       <c r="D24" t="s">
-        <v>480</v>
+        <v>706</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3454,13 +4358,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>254</v>
       </c>
       <c r="C25" t="s">
-        <v>254</v>
+        <v>480</v>
       </c>
       <c r="D25" t="s">
-        <v>481</v>
+        <v>707</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3468,13 +4372,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>255</v>
       </c>
       <c r="C26" t="s">
-        <v>255</v>
+        <v>481</v>
       </c>
       <c r="D26" t="s">
-        <v>482</v>
+        <v>708</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3482,13 +4386,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>256</v>
       </c>
       <c r="C27" t="s">
-        <v>256</v>
+        <v>482</v>
       </c>
       <c r="D27" t="s">
-        <v>483</v>
+        <v>709</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3496,13 +4400,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>257</v>
       </c>
       <c r="C28" t="s">
-        <v>257</v>
+        <v>483</v>
       </c>
       <c r="D28" t="s">
-        <v>484</v>
+        <v>710</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3510,13 +4414,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>258</v>
       </c>
       <c r="C29" t="s">
-        <v>258</v>
+        <v>484</v>
       </c>
       <c r="D29" t="s">
-        <v>485</v>
+        <v>711</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3524,13 +4428,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>259</v>
       </c>
       <c r="C30" t="s">
-        <v>259</v>
+        <v>485</v>
       </c>
       <c r="D30" t="s">
-        <v>486</v>
+        <v>712</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3538,13 +4442,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>260</v>
       </c>
       <c r="C31" t="s">
-        <v>260</v>
+        <v>486</v>
       </c>
       <c r="D31" t="s">
-        <v>487</v>
+        <v>713</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3552,13 +4456,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>261</v>
       </c>
       <c r="C32" t="s">
-        <v>261</v>
+        <v>487</v>
       </c>
       <c r="D32" t="s">
-        <v>488</v>
+        <v>714</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3566,13 +4470,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>262</v>
       </c>
       <c r="C33" t="s">
-        <v>262</v>
+        <v>488</v>
       </c>
       <c r="D33" t="s">
-        <v>489</v>
+        <v>715</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3580,13 +4484,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>263</v>
       </c>
       <c r="C34" t="s">
-        <v>263</v>
+        <v>489</v>
       </c>
       <c r="D34" t="s">
-        <v>490</v>
+        <v>716</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3594,13 +4498,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>264</v>
       </c>
       <c r="C35" t="s">
-        <v>264</v>
+        <v>490</v>
       </c>
       <c r="D35" t="s">
-        <v>491</v>
+        <v>717</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3608,13 +4512,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>265</v>
       </c>
       <c r="C36" t="s">
-        <v>265</v>
+        <v>491</v>
       </c>
       <c r="D36" t="s">
-        <v>492</v>
+        <v>718</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3622,13 +4526,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>266</v>
       </c>
       <c r="C37" t="s">
-        <v>266</v>
+        <v>492</v>
       </c>
       <c r="D37" t="s">
-        <v>493</v>
+        <v>719</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3636,13 +4540,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>267</v>
       </c>
       <c r="C38" t="s">
-        <v>267</v>
+        <v>493</v>
       </c>
       <c r="D38" t="s">
-        <v>494</v>
+        <v>720</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3650,13 +4554,13 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>268</v>
       </c>
       <c r="C39" t="s">
-        <v>268</v>
+        <v>494</v>
       </c>
       <c r="D39" t="s">
-        <v>495</v>
+        <v>721</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3664,13 +4568,13 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>269</v>
       </c>
       <c r="C40" t="s">
-        <v>269</v>
+        <v>495</v>
       </c>
       <c r="D40" t="s">
-        <v>496</v>
+        <v>722</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3678,13 +4582,13 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>270</v>
       </c>
       <c r="C41" t="s">
-        <v>270</v>
+        <v>496</v>
       </c>
       <c r="D41" t="s">
-        <v>497</v>
+        <v>723</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3692,13 +4596,13 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>271</v>
       </c>
       <c r="C42" t="s">
-        <v>271</v>
+        <v>497</v>
       </c>
       <c r="D42" t="s">
-        <v>498</v>
+        <v>724</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3706,13 +4610,13 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>272</v>
       </c>
       <c r="C43" t="s">
-        <v>272</v>
+        <v>498</v>
       </c>
       <c r="D43" t="s">
-        <v>499</v>
+        <v>725</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3720,13 +4624,13 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>273</v>
       </c>
       <c r="C44" t="s">
-        <v>273</v>
+        <v>499</v>
       </c>
       <c r="D44" t="s">
-        <v>500</v>
+        <v>726</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3734,13 +4638,13 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>274</v>
       </c>
       <c r="C45" t="s">
-        <v>274</v>
+        <v>500</v>
       </c>
       <c r="D45" t="s">
-        <v>501</v>
+        <v>727</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3748,13 +4652,13 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>275</v>
       </c>
       <c r="C46" t="s">
-        <v>275</v>
+        <v>501</v>
       </c>
       <c r="D46" t="s">
-        <v>502</v>
+        <v>728</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3762,13 +4666,13 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>276</v>
       </c>
       <c r="C47" t="s">
-        <v>276</v>
+        <v>502</v>
       </c>
       <c r="D47" t="s">
-        <v>503</v>
+        <v>729</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3776,13 +4680,13 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>277</v>
       </c>
       <c r="C48" t="s">
-        <v>277</v>
+        <v>503</v>
       </c>
       <c r="D48" t="s">
-        <v>504</v>
+        <v>730</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3790,13 +4694,13 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>271</v>
       </c>
       <c r="C49" t="s">
-        <v>278</v>
+        <v>504</v>
       </c>
       <c r="D49" t="s">
-        <v>505</v>
+        <v>731</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3804,13 +4708,13 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>278</v>
       </c>
       <c r="C50" t="s">
-        <v>279</v>
+        <v>505</v>
       </c>
       <c r="D50" t="s">
-        <v>506</v>
+        <v>732</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3818,13 +4722,13 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>279</v>
       </c>
       <c r="C51" t="s">
-        <v>280</v>
+        <v>506</v>
       </c>
       <c r="D51" t="s">
-        <v>507</v>
+        <v>733</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3832,13 +4736,13 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>280</v>
       </c>
       <c r="C52" t="s">
-        <v>281</v>
+        <v>507</v>
       </c>
       <c r="D52" t="s">
-        <v>508</v>
+        <v>734</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3846,13 +4750,13 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>281</v>
       </c>
       <c r="C53" t="s">
-        <v>282</v>
+        <v>508</v>
       </c>
       <c r="D53" t="s">
-        <v>509</v>
+        <v>735</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3860,13 +4764,13 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>282</v>
       </c>
       <c r="C54" t="s">
-        <v>283</v>
+        <v>509</v>
       </c>
       <c r="D54" t="s">
-        <v>510</v>
+        <v>736</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3874,13 +4778,13 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>283</v>
       </c>
       <c r="C55" t="s">
-        <v>284</v>
+        <v>510</v>
       </c>
       <c r="D55" t="s">
-        <v>511</v>
+        <v>737</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3888,13 +4792,13 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>284</v>
       </c>
       <c r="C56" t="s">
-        <v>285</v>
+        <v>511</v>
       </c>
       <c r="D56" t="s">
-        <v>512</v>
+        <v>738</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3902,13 +4806,13 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>285</v>
       </c>
       <c r="C57" t="s">
-        <v>286</v>
+        <v>512</v>
       </c>
       <c r="D57" t="s">
-        <v>513</v>
+        <v>739</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3916,13 +4820,13 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>286</v>
       </c>
       <c r="C58" t="s">
-        <v>287</v>
+        <v>513</v>
       </c>
       <c r="D58" t="s">
-        <v>514</v>
+        <v>740</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3930,13 +4834,13 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>287</v>
       </c>
       <c r="C59" t="s">
-        <v>288</v>
+        <v>514</v>
       </c>
       <c r="D59" t="s">
-        <v>515</v>
+        <v>741</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3944,13 +4848,13 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>288</v>
       </c>
       <c r="C60" t="s">
-        <v>289</v>
+        <v>515</v>
       </c>
       <c r="D60" t="s">
-        <v>516</v>
+        <v>742</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3958,13 +4862,13 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>289</v>
       </c>
       <c r="C61" t="s">
-        <v>290</v>
+        <v>516</v>
       </c>
       <c r="D61" t="s">
-        <v>517</v>
+        <v>743</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3972,13 +4876,13 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>290</v>
       </c>
       <c r="C62" t="s">
-        <v>291</v>
+        <v>517</v>
       </c>
       <c r="D62" t="s">
-        <v>518</v>
+        <v>744</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3986,13 +4890,13 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>291</v>
       </c>
       <c r="C63" t="s">
-        <v>292</v>
+        <v>518</v>
       </c>
       <c r="D63" t="s">
-        <v>519</v>
+        <v>745</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -4000,13 +4904,13 @@
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>292</v>
       </c>
       <c r="C64" t="s">
-        <v>293</v>
+        <v>519</v>
       </c>
       <c r="D64" t="s">
-        <v>520</v>
+        <v>746</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -4014,13 +4918,13 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>293</v>
       </c>
       <c r="C65" t="s">
-        <v>294</v>
+        <v>520</v>
       </c>
       <c r="D65" t="s">
-        <v>521</v>
+        <v>747</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -4028,13 +4932,13 @@
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>294</v>
       </c>
       <c r="C66" t="s">
-        <v>295</v>
+        <v>521</v>
       </c>
       <c r="D66" t="s">
-        <v>522</v>
+        <v>748</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -4042,13 +4946,13 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>295</v>
       </c>
       <c r="C67" t="s">
-        <v>296</v>
+        <v>522</v>
       </c>
       <c r="D67" t="s">
-        <v>523</v>
+        <v>749</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -4056,13 +4960,13 @@
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>296</v>
       </c>
       <c r="C68" t="s">
-        <v>297</v>
+        <v>523</v>
       </c>
       <c r="D68" t="s">
-        <v>524</v>
+        <v>750</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -4070,13 +4974,13 @@
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>297</v>
       </c>
       <c r="C69" t="s">
-        <v>298</v>
+        <v>524</v>
       </c>
       <c r="D69" t="s">
-        <v>525</v>
+        <v>751</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -4084,13 +4988,13 @@
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>298</v>
       </c>
       <c r="C70" t="s">
-        <v>299</v>
+        <v>525</v>
       </c>
       <c r="D70" t="s">
-        <v>526</v>
+        <v>752</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -4098,13 +5002,13 @@
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>299</v>
       </c>
       <c r="C71" t="s">
-        <v>300</v>
+        <v>526</v>
       </c>
       <c r="D71" t="s">
-        <v>527</v>
+        <v>753</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -4112,13 +5016,13 @@
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>74</v>
+        <v>300</v>
       </c>
       <c r="C72" t="s">
-        <v>301</v>
+        <v>527</v>
       </c>
       <c r="D72" t="s">
-        <v>528</v>
+        <v>754</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -4126,13 +5030,13 @@
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>301</v>
       </c>
       <c r="C73" t="s">
-        <v>302</v>
+        <v>528</v>
       </c>
       <c r="D73" t="s">
-        <v>529</v>
+        <v>755</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -4140,13 +5044,13 @@
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>302</v>
       </c>
       <c r="C74" t="s">
-        <v>303</v>
+        <v>529</v>
       </c>
       <c r="D74" t="s">
-        <v>530</v>
+        <v>756</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -4154,13 +5058,13 @@
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>303</v>
       </c>
       <c r="C75" t="s">
-        <v>304</v>
+        <v>530</v>
       </c>
       <c r="D75" t="s">
-        <v>531</v>
+        <v>757</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -4168,13 +5072,13 @@
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>304</v>
       </c>
       <c r="C76" t="s">
-        <v>305</v>
+        <v>531</v>
       </c>
       <c r="D76" t="s">
-        <v>532</v>
+        <v>758</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -4182,13 +5086,13 @@
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>305</v>
       </c>
       <c r="C77" t="s">
-        <v>306</v>
+        <v>532</v>
       </c>
       <c r="D77" t="s">
-        <v>533</v>
+        <v>759</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -4196,13 +5100,13 @@
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>306</v>
       </c>
       <c r="C78" t="s">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D78" t="s">
-        <v>534</v>
+        <v>760</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -4210,13 +5114,13 @@
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>307</v>
       </c>
       <c r="C79" t="s">
-        <v>308</v>
+        <v>534</v>
       </c>
       <c r="D79" t="s">
-        <v>535</v>
+        <v>761</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -4224,13 +5128,13 @@
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>308</v>
       </c>
       <c r="C80" t="s">
-        <v>309</v>
+        <v>535</v>
       </c>
       <c r="D80" t="s">
-        <v>536</v>
+        <v>762</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -4238,13 +5142,13 @@
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
+        <v>309</v>
       </c>
       <c r="C81" t="s">
-        <v>310</v>
+        <v>536</v>
       </c>
       <c r="D81" t="s">
-        <v>537</v>
+        <v>763</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -4252,13 +5156,13 @@
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
+        <v>310</v>
       </c>
       <c r="C82" t="s">
-        <v>311</v>
+        <v>537</v>
       </c>
       <c r="D82" t="s">
-        <v>538</v>
+        <v>764</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -4266,13 +5170,13 @@
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>85</v>
+        <v>311</v>
       </c>
       <c r="C83" t="s">
-        <v>312</v>
+        <v>538</v>
       </c>
       <c r="D83" t="s">
-        <v>539</v>
+        <v>765</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -4280,13 +5184,13 @@
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
+        <v>312</v>
       </c>
       <c r="C84" t="s">
-        <v>313</v>
+        <v>539</v>
       </c>
       <c r="D84" t="s">
-        <v>540</v>
+        <v>766</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -4294,13 +5198,13 @@
         <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>87</v>
+        <v>313</v>
       </c>
       <c r="C85" t="s">
-        <v>314</v>
+        <v>540</v>
       </c>
       <c r="D85" t="s">
-        <v>541</v>
+        <v>767</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -4308,13 +5212,13 @@
         <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>88</v>
+        <v>314</v>
       </c>
       <c r="C86" t="s">
-        <v>315</v>
+        <v>541</v>
       </c>
       <c r="D86" t="s">
-        <v>542</v>
+        <v>768</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -4322,13 +5226,13 @@
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>89</v>
+        <v>315</v>
       </c>
       <c r="C87" t="s">
-        <v>316</v>
+        <v>542</v>
       </c>
       <c r="D87" t="s">
-        <v>543</v>
+        <v>769</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -4336,13 +5240,13 @@
         <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>90</v>
+        <v>316</v>
       </c>
       <c r="C88" t="s">
-        <v>317</v>
+        <v>543</v>
       </c>
       <c r="D88" t="s">
-        <v>544</v>
+        <v>770</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -4350,13 +5254,13 @@
         <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>91</v>
+        <v>317</v>
       </c>
       <c r="C89" t="s">
-        <v>318</v>
+        <v>544</v>
       </c>
       <c r="D89" t="s">
-        <v>545</v>
+        <v>771</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -4364,13 +5268,13 @@
         <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>92</v>
+        <v>318</v>
       </c>
       <c r="C90" t="s">
-        <v>319</v>
+        <v>545</v>
       </c>
       <c r="D90" t="s">
-        <v>546</v>
+        <v>772</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -4378,13 +5282,13 @@
         <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>93</v>
+        <v>319</v>
       </c>
       <c r="C91" t="s">
-        <v>320</v>
+        <v>546</v>
       </c>
       <c r="D91" t="s">
-        <v>547</v>
+        <v>773</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -4392,13 +5296,13 @@
         <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>94</v>
+        <v>320</v>
       </c>
       <c r="C92" t="s">
-        <v>321</v>
+        <v>547</v>
       </c>
       <c r="D92" t="s">
-        <v>548</v>
+        <v>774</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -4406,13 +5310,13 @@
         <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>95</v>
+        <v>321</v>
       </c>
       <c r="C93" t="s">
-        <v>322</v>
+        <v>548</v>
       </c>
       <c r="D93" t="s">
-        <v>549</v>
+        <v>775</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -4420,13 +5324,13 @@
         <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>96</v>
+        <v>322</v>
       </c>
       <c r="C94" t="s">
-        <v>323</v>
+        <v>549</v>
       </c>
       <c r="D94" t="s">
-        <v>550</v>
+        <v>776</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -4434,13 +5338,13 @@
         <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>97</v>
+        <v>323</v>
       </c>
       <c r="C95" t="s">
-        <v>324</v>
+        <v>550</v>
       </c>
       <c r="D95" t="s">
-        <v>551</v>
+        <v>777</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -4448,13 +5352,13 @@
         <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>98</v>
+        <v>324</v>
       </c>
       <c r="C96" t="s">
-        <v>325</v>
+        <v>551</v>
       </c>
       <c r="D96" t="s">
-        <v>552</v>
+        <v>778</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -4462,13 +5366,13 @@
         <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>99</v>
+        <v>325</v>
       </c>
       <c r="C97" t="s">
-        <v>326</v>
+        <v>552</v>
       </c>
       <c r="D97" t="s">
-        <v>553</v>
+        <v>779</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -4476,13 +5380,13 @@
         <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>100</v>
+        <v>326</v>
       </c>
       <c r="C98" t="s">
-        <v>327</v>
+        <v>553</v>
       </c>
       <c r="D98" t="s">
-        <v>554</v>
+        <v>780</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -4490,13 +5394,13 @@
         <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>101</v>
+        <v>327</v>
       </c>
       <c r="C99" t="s">
-        <v>328</v>
+        <v>554</v>
       </c>
       <c r="D99" t="s">
-        <v>555</v>
+        <v>781</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -4504,13 +5408,13 @@
         <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>102</v>
+        <v>328</v>
       </c>
       <c r="C100" t="s">
-        <v>329</v>
+        <v>555</v>
       </c>
       <c r="D100" t="s">
-        <v>556</v>
+        <v>782</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -4518,13 +5422,13 @@
         <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>103</v>
+        <v>329</v>
       </c>
       <c r="C101" t="s">
-        <v>330</v>
+        <v>556</v>
       </c>
       <c r="D101" t="s">
-        <v>557</v>
+        <v>783</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -4532,13 +5436,13 @@
         <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>104</v>
+        <v>330</v>
       </c>
       <c r="C102" t="s">
-        <v>331</v>
+        <v>557</v>
       </c>
       <c r="D102" t="s">
-        <v>558</v>
+        <v>784</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -4546,13 +5450,13 @@
         <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>105</v>
+        <v>331</v>
       </c>
       <c r="C103" t="s">
-        <v>332</v>
+        <v>558</v>
       </c>
       <c r="D103" t="s">
-        <v>559</v>
+        <v>785</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -4560,13 +5464,13 @@
         <v>89</v>
       </c>
       <c r="B104" t="s">
-        <v>89</v>
+        <v>315</v>
       </c>
       <c r="C104" t="s">
-        <v>316</v>
+        <v>542</v>
       </c>
       <c r="D104" t="s">
-        <v>543</v>
+        <v>769</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -4574,13 +5478,13 @@
         <v>106</v>
       </c>
       <c r="B105" t="s">
-        <v>106</v>
+        <v>332</v>
       </c>
       <c r="C105" t="s">
-        <v>333</v>
+        <v>559</v>
       </c>
       <c r="D105" t="s">
-        <v>560</v>
+        <v>786</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -4588,13 +5492,13 @@
         <v>107</v>
       </c>
       <c r="B106" t="s">
-        <v>107</v>
+        <v>333</v>
       </c>
       <c r="C106" t="s">
-        <v>334</v>
+        <v>560</v>
       </c>
       <c r="D106" t="s">
-        <v>561</v>
+        <v>787</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -4602,13 +5506,13 @@
         <v>108</v>
       </c>
       <c r="B107" t="s">
-        <v>108</v>
+        <v>334</v>
       </c>
       <c r="C107" t="s">
-        <v>335</v>
+        <v>561</v>
       </c>
       <c r="D107" t="s">
-        <v>562</v>
+        <v>788</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -4616,13 +5520,13 @@
         <v>109</v>
       </c>
       <c r="B108" t="s">
-        <v>109</v>
+        <v>335</v>
       </c>
       <c r="C108" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
       <c r="D108" t="s">
-        <v>563</v>
+        <v>789</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -4630,13 +5534,13 @@
         <v>110</v>
       </c>
       <c r="B109" t="s">
-        <v>110</v>
+        <v>336</v>
       </c>
       <c r="C109" t="s">
-        <v>337</v>
+        <v>563</v>
       </c>
       <c r="D109" t="s">
-        <v>564</v>
+        <v>790</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -4644,13 +5548,13 @@
         <v>111</v>
       </c>
       <c r="B110" t="s">
-        <v>111</v>
+        <v>337</v>
       </c>
       <c r="C110" t="s">
-        <v>338</v>
+        <v>564</v>
       </c>
       <c r="D110" t="s">
-        <v>565</v>
+        <v>791</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -4658,13 +5562,13 @@
         <v>112</v>
       </c>
       <c r="B111" t="s">
-        <v>112</v>
+        <v>338</v>
       </c>
       <c r="C111" t="s">
-        <v>339</v>
+        <v>565</v>
       </c>
       <c r="D111" t="s">
-        <v>566</v>
+        <v>792</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -4672,13 +5576,13 @@
         <v>113</v>
       </c>
       <c r="B112" t="s">
-        <v>113</v>
+        <v>339</v>
       </c>
       <c r="C112" t="s">
-        <v>340</v>
+        <v>566</v>
       </c>
       <c r="D112" t="s">
-        <v>567</v>
+        <v>793</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -4686,13 +5590,13 @@
         <v>114</v>
       </c>
       <c r="B113" t="s">
-        <v>114</v>
+        <v>340</v>
       </c>
       <c r="C113" t="s">
-        <v>341</v>
+        <v>567</v>
       </c>
       <c r="D113" t="s">
-        <v>568</v>
+        <v>794</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -4700,13 +5604,13 @@
         <v>115</v>
       </c>
       <c r="B114" t="s">
-        <v>115</v>
+        <v>341</v>
       </c>
       <c r="C114" t="s">
-        <v>342</v>
+        <v>568</v>
       </c>
       <c r="D114" t="s">
-        <v>569</v>
+        <v>795</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -4714,13 +5618,13 @@
         <v>116</v>
       </c>
       <c r="B115" t="s">
-        <v>116</v>
+        <v>342</v>
       </c>
       <c r="C115" t="s">
-        <v>343</v>
+        <v>569</v>
       </c>
       <c r="D115" t="s">
-        <v>570</v>
+        <v>796</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -4728,13 +5632,13 @@
         <v>117</v>
       </c>
       <c r="B116" t="s">
-        <v>117</v>
+        <v>343</v>
       </c>
       <c r="C116" t="s">
-        <v>344</v>
+        <v>570</v>
       </c>
       <c r="D116" t="s">
-        <v>571</v>
+        <v>797</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -4742,13 +5646,13 @@
         <v>118</v>
       </c>
       <c r="B117" t="s">
-        <v>118</v>
+        <v>344</v>
       </c>
       <c r="C117" t="s">
-        <v>345</v>
+        <v>571</v>
       </c>
       <c r="D117" t="s">
-        <v>572</v>
+        <v>798</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -4756,13 +5660,13 @@
         <v>119</v>
       </c>
       <c r="B118" t="s">
-        <v>119</v>
+        <v>345</v>
       </c>
       <c r="C118" t="s">
-        <v>346</v>
+        <v>572</v>
       </c>
       <c r="D118" t="s">
-        <v>573</v>
+        <v>799</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -4770,13 +5674,13 @@
         <v>120</v>
       </c>
       <c r="B119" t="s">
-        <v>120</v>
+        <v>346</v>
       </c>
       <c r="C119" t="s">
-        <v>347</v>
+        <v>573</v>
       </c>
       <c r="D119" t="s">
-        <v>574</v>
+        <v>800</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -4784,13 +5688,13 @@
         <v>121</v>
       </c>
       <c r="B120" t="s">
-        <v>121</v>
+        <v>347</v>
       </c>
       <c r="C120" t="s">
-        <v>348</v>
+        <v>574</v>
       </c>
       <c r="D120" t="s">
-        <v>575</v>
+        <v>801</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -4798,13 +5702,13 @@
         <v>122</v>
       </c>
       <c r="B121" t="s">
-        <v>122</v>
+        <v>348</v>
       </c>
       <c r="C121" t="s">
-        <v>349</v>
+        <v>575</v>
       </c>
       <c r="D121" t="s">
-        <v>576</v>
+        <v>802</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -4812,13 +5716,13 @@
         <v>123</v>
       </c>
       <c r="B122" t="s">
-        <v>123</v>
+        <v>349</v>
       </c>
       <c r="C122" t="s">
-        <v>350</v>
+        <v>576</v>
       </c>
       <c r="D122" t="s">
-        <v>577</v>
+        <v>803</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4826,13 +5730,13 @@
         <v>124</v>
       </c>
       <c r="B123" t="s">
-        <v>124</v>
+        <v>350</v>
       </c>
       <c r="C123" t="s">
-        <v>351</v>
+        <v>577</v>
       </c>
       <c r="D123" t="s">
-        <v>578</v>
+        <v>804</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -4840,13 +5744,13 @@
         <v>125</v>
       </c>
       <c r="B124" t="s">
-        <v>125</v>
+        <v>351</v>
       </c>
       <c r="C124" t="s">
-        <v>352</v>
+        <v>578</v>
       </c>
       <c r="D124" t="s">
-        <v>579</v>
+        <v>805</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -4854,13 +5758,13 @@
         <v>126</v>
       </c>
       <c r="B125" t="s">
-        <v>126</v>
+        <v>352</v>
       </c>
       <c r="C125" t="s">
-        <v>353</v>
+        <v>579</v>
       </c>
       <c r="D125" t="s">
-        <v>580</v>
+        <v>806</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -4868,13 +5772,13 @@
         <v>127</v>
       </c>
       <c r="B126" t="s">
-        <v>127</v>
+        <v>353</v>
       </c>
       <c r="C126" t="s">
-        <v>354</v>
+        <v>580</v>
       </c>
       <c r="D126" t="s">
-        <v>581</v>
+        <v>807</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -4882,13 +5786,13 @@
         <v>128</v>
       </c>
       <c r="B127" t="s">
-        <v>128</v>
+        <v>354</v>
       </c>
       <c r="C127" t="s">
-        <v>355</v>
+        <v>581</v>
       </c>
       <c r="D127" t="s">
-        <v>582</v>
+        <v>808</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -4896,13 +5800,13 @@
         <v>129</v>
       </c>
       <c r="B128" t="s">
-        <v>129</v>
+        <v>355</v>
       </c>
       <c r="C128" t="s">
-        <v>356</v>
+        <v>582</v>
       </c>
       <c r="D128" t="s">
-        <v>583</v>
+        <v>809</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4910,13 +5814,13 @@
         <v>130</v>
       </c>
       <c r="B129" t="s">
-        <v>130</v>
+        <v>356</v>
       </c>
       <c r="C129" t="s">
-        <v>357</v>
+        <v>583</v>
       </c>
       <c r="D129" t="s">
-        <v>584</v>
+        <v>810</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -4924,13 +5828,13 @@
         <v>131</v>
       </c>
       <c r="B130" t="s">
-        <v>131</v>
+        <v>357</v>
       </c>
       <c r="C130" t="s">
-        <v>358</v>
+        <v>584</v>
       </c>
       <c r="D130" t="s">
-        <v>585</v>
+        <v>811</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -4938,13 +5842,13 @@
         <v>132</v>
       </c>
       <c r="B131" t="s">
-        <v>132</v>
+        <v>358</v>
       </c>
       <c r="C131" t="s">
-        <v>359</v>
+        <v>585</v>
       </c>
       <c r="D131" t="s">
-        <v>586</v>
+        <v>812</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -4952,13 +5856,13 @@
         <v>133</v>
       </c>
       <c r="B132" t="s">
-        <v>133</v>
+        <v>359</v>
       </c>
       <c r="C132" t="s">
-        <v>360</v>
+        <v>586</v>
       </c>
       <c r="D132" t="s">
-        <v>587</v>
+        <v>813</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -4966,13 +5870,13 @@
         <v>108</v>
       </c>
       <c r="B133" t="s">
-        <v>108</v>
+        <v>334</v>
       </c>
       <c r="C133" t="s">
-        <v>335</v>
+        <v>561</v>
       </c>
       <c r="D133" t="s">
-        <v>562</v>
+        <v>788</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -4980,13 +5884,13 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>134</v>
+        <v>360</v>
       </c>
       <c r="C134" t="s">
-        <v>361</v>
+        <v>587</v>
       </c>
       <c r="D134" t="s">
-        <v>588</v>
+        <v>814</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -4994,13 +5898,13 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>135</v>
+        <v>361</v>
       </c>
       <c r="C135" t="s">
-        <v>362</v>
+        <v>588</v>
       </c>
       <c r="D135" t="s">
-        <v>589</v>
+        <v>815</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -5008,13 +5912,13 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>136</v>
+        <v>362</v>
       </c>
       <c r="C136" t="s">
-        <v>363</v>
+        <v>589</v>
       </c>
       <c r="D136" t="s">
-        <v>590</v>
+        <v>816</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -5022,13 +5926,13 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>137</v>
+        <v>363</v>
       </c>
       <c r="C137" t="s">
-        <v>364</v>
+        <v>590</v>
       </c>
       <c r="D137" t="s">
-        <v>591</v>
+        <v>817</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -5036,13 +5940,13 @@
         <v>89</v>
       </c>
       <c r="B138" t="s">
-        <v>89</v>
+        <v>315</v>
       </c>
       <c r="C138" t="s">
-        <v>316</v>
+        <v>542</v>
       </c>
       <c r="D138" t="s">
-        <v>543</v>
+        <v>769</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -5050,13 +5954,13 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>138</v>
+        <v>364</v>
       </c>
       <c r="C139" t="s">
-        <v>365</v>
+        <v>591</v>
       </c>
       <c r="D139" t="s">
-        <v>592</v>
+        <v>818</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -5064,13 +5968,13 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>139</v>
+        <v>365</v>
       </c>
       <c r="C140" t="s">
-        <v>366</v>
+        <v>592</v>
       </c>
       <c r="D140" t="s">
-        <v>593</v>
+        <v>819</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -5078,13 +5982,13 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>140</v>
+        <v>366</v>
       </c>
       <c r="C141" t="s">
-        <v>367</v>
+        <v>593</v>
       </c>
       <c r="D141" t="s">
-        <v>594</v>
+        <v>820</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -5092,13 +5996,13 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>141</v>
+        <v>367</v>
       </c>
       <c r="C142" t="s">
-        <v>368</v>
+        <v>594</v>
       </c>
       <c r="D142" t="s">
-        <v>595</v>
+        <v>821</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -5106,13 +6010,13 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>142</v>
+        <v>368</v>
       </c>
       <c r="C143" t="s">
-        <v>369</v>
+        <v>595</v>
       </c>
       <c r="D143" t="s">
-        <v>596</v>
+        <v>822</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -5120,13 +6024,13 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>143</v>
+        <v>369</v>
       </c>
       <c r="C144" t="s">
-        <v>370</v>
+        <v>596</v>
       </c>
       <c r="D144" t="s">
-        <v>597</v>
+        <v>823</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -5134,13 +6038,13 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>144</v>
+        <v>370</v>
       </c>
       <c r="C145" t="s">
-        <v>371</v>
+        <v>597</v>
       </c>
       <c r="D145" t="s">
-        <v>598</v>
+        <v>824</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -5148,13 +6052,13 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>145</v>
+        <v>371</v>
       </c>
       <c r="C146" t="s">
-        <v>372</v>
+        <v>598</v>
       </c>
       <c r="D146" t="s">
-        <v>599</v>
+        <v>825</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -5162,13 +6066,13 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
       <c r="C147" t="s">
-        <v>373</v>
+        <v>599</v>
       </c>
       <c r="D147" t="s">
-        <v>600</v>
+        <v>826</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -5176,13 +6080,13 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>147</v>
+        <v>373</v>
       </c>
       <c r="C148" t="s">
-        <v>374</v>
+        <v>600</v>
       </c>
       <c r="D148" t="s">
-        <v>601</v>
+        <v>827</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -5190,13 +6094,13 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
       <c r="C149" t="s">
-        <v>375</v>
+        <v>601</v>
       </c>
       <c r="D149" t="s">
-        <v>602</v>
+        <v>828</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -5204,13 +6108,13 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>149</v>
+        <v>375</v>
       </c>
       <c r="C150" t="s">
-        <v>376</v>
+        <v>602</v>
       </c>
       <c r="D150" t="s">
-        <v>603</v>
+        <v>829</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -5218,13 +6122,13 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>150</v>
+        <v>376</v>
       </c>
       <c r="C151" t="s">
-        <v>377</v>
+        <v>603</v>
       </c>
       <c r="D151" t="s">
-        <v>604</v>
+        <v>830</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -5232,13 +6136,13 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C152" t="s">
-        <v>378</v>
+        <v>604</v>
       </c>
       <c r="D152" t="s">
-        <v>605</v>
+        <v>831</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -5246,13 +6150,13 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>152</v>
+        <v>378</v>
       </c>
       <c r="C153" t="s">
-        <v>379</v>
+        <v>605</v>
       </c>
       <c r="D153" t="s">
-        <v>606</v>
+        <v>832</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -5260,13 +6164,13 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>153</v>
+        <v>379</v>
       </c>
       <c r="C154" t="s">
-        <v>380</v>
+        <v>606</v>
       </c>
       <c r="D154" t="s">
-        <v>607</v>
+        <v>833</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -5274,13 +6178,13 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>154</v>
+        <v>380</v>
       </c>
       <c r="C155" t="s">
-        <v>381</v>
+        <v>607</v>
       </c>
       <c r="D155" t="s">
-        <v>608</v>
+        <v>834</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -5288,13 +6192,13 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>155</v>
+        <v>381</v>
       </c>
       <c r="C156" t="s">
-        <v>382</v>
+        <v>608</v>
       </c>
       <c r="D156" t="s">
-        <v>609</v>
+        <v>835</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -5302,13 +6206,13 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>156</v>
+        <v>382</v>
       </c>
       <c r="C157" t="s">
-        <v>383</v>
+        <v>609</v>
       </c>
       <c r="D157" t="s">
-        <v>610</v>
+        <v>836</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -5316,13 +6220,13 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>157</v>
+        <v>383</v>
       </c>
       <c r="C158" t="s">
-        <v>384</v>
+        <v>610</v>
       </c>
       <c r="D158" t="s">
-        <v>611</v>
+        <v>837</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -5330,13 +6234,13 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>158</v>
+        <v>384</v>
       </c>
       <c r="C159" t="s">
-        <v>385</v>
+        <v>611</v>
       </c>
       <c r="D159" t="s">
-        <v>612</v>
+        <v>838</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -5344,13 +6248,13 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>159</v>
+        <v>385</v>
       </c>
       <c r="C160" t="s">
-        <v>386</v>
+        <v>612</v>
       </c>
       <c r="D160" t="s">
-        <v>613</v>
+        <v>839</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -5358,13 +6262,13 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>160</v>
+        <v>386</v>
       </c>
       <c r="C161" t="s">
-        <v>387</v>
+        <v>613</v>
       </c>
       <c r="D161" t="s">
-        <v>614</v>
+        <v>840</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -5372,13 +6276,13 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
       <c r="C162" t="s">
-        <v>388</v>
+        <v>614</v>
       </c>
       <c r="D162" t="s">
-        <v>615</v>
+        <v>841</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -5386,13 +6290,13 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>162</v>
+        <v>388</v>
       </c>
       <c r="C163" t="s">
-        <v>389</v>
+        <v>615</v>
       </c>
       <c r="D163" t="s">
-        <v>616</v>
+        <v>842</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -5400,13 +6304,13 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>163</v>
+        <v>389</v>
       </c>
       <c r="C164" t="s">
-        <v>390</v>
+        <v>616</v>
       </c>
       <c r="D164" t="s">
-        <v>617</v>
+        <v>843</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -5414,13 +6318,13 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>164</v>
+        <v>390</v>
       </c>
       <c r="C165" t="s">
-        <v>391</v>
+        <v>617</v>
       </c>
       <c r="D165" t="s">
-        <v>618</v>
+        <v>844</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -5428,13 +6332,13 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>165</v>
+        <v>391</v>
       </c>
       <c r="C166" t="s">
-        <v>392</v>
+        <v>618</v>
       </c>
       <c r="D166" t="s">
-        <v>619</v>
+        <v>845</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -5442,13 +6346,13 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>166</v>
+        <v>392</v>
       </c>
       <c r="C167" t="s">
-        <v>393</v>
+        <v>619</v>
       </c>
       <c r="D167" t="s">
-        <v>620</v>
+        <v>846</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5456,13 +6360,13 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>167</v>
+        <v>393</v>
       </c>
       <c r="C168" t="s">
-        <v>394</v>
+        <v>620</v>
       </c>
       <c r="D168" t="s">
-        <v>621</v>
+        <v>847</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -5470,13 +6374,13 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>168</v>
+        <v>394</v>
       </c>
       <c r="C169" t="s">
-        <v>395</v>
+        <v>621</v>
       </c>
       <c r="D169" t="s">
-        <v>622</v>
+        <v>848</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -5484,13 +6388,13 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>169</v>
+        <v>395</v>
       </c>
       <c r="C170" t="s">
-        <v>396</v>
+        <v>622</v>
       </c>
       <c r="D170" t="s">
-        <v>623</v>
+        <v>849</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -5498,13 +6402,13 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>170</v>
+        <v>396</v>
       </c>
       <c r="C171" t="s">
-        <v>397</v>
+        <v>623</v>
       </c>
       <c r="D171" t="s">
-        <v>624</v>
+        <v>850</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -5512,13 +6416,13 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>171</v>
+        <v>397</v>
       </c>
       <c r="C172" t="s">
-        <v>398</v>
+        <v>624</v>
       </c>
       <c r="D172" t="s">
-        <v>625</v>
+        <v>851</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -5526,13 +6430,13 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>172</v>
+        <v>398</v>
       </c>
       <c r="C173" t="s">
-        <v>399</v>
+        <v>625</v>
       </c>
       <c r="D173" t="s">
-        <v>626</v>
+        <v>852</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -5540,13 +6444,13 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>173</v>
+        <v>399</v>
       </c>
       <c r="C174" t="s">
-        <v>400</v>
+        <v>626</v>
       </c>
       <c r="D174" t="s">
-        <v>627</v>
+        <v>853</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -5554,13 +6458,13 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>174</v>
+        <v>400</v>
       </c>
       <c r="C175" t="s">
-        <v>401</v>
+        <v>627</v>
       </c>
       <c r="D175" t="s">
-        <v>628</v>
+        <v>854</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -5568,13 +6472,13 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>175</v>
+        <v>401</v>
       </c>
       <c r="C176" t="s">
-        <v>402</v>
+        <v>628</v>
       </c>
       <c r="D176" t="s">
-        <v>629</v>
+        <v>855</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -5582,13 +6486,13 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>176</v>
+        <v>402</v>
       </c>
       <c r="C177" t="s">
-        <v>403</v>
+        <v>629</v>
       </c>
       <c r="D177" t="s">
-        <v>630</v>
+        <v>856</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -5596,13 +6500,13 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>177</v>
+        <v>403</v>
       </c>
       <c r="C178" t="s">
-        <v>404</v>
+        <v>630</v>
       </c>
       <c r="D178" t="s">
-        <v>631</v>
+        <v>857</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -5610,13 +6514,13 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>178</v>
+        <v>404</v>
       </c>
       <c r="C179" t="s">
-        <v>405</v>
+        <v>631</v>
       </c>
       <c r="D179" t="s">
-        <v>632</v>
+        <v>858</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -5624,13 +6528,13 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>179</v>
+        <v>405</v>
       </c>
       <c r="C180" t="s">
-        <v>406</v>
+        <v>632</v>
       </c>
       <c r="D180" t="s">
-        <v>633</v>
+        <v>859</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -5638,13 +6542,13 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>180</v>
+        <v>406</v>
       </c>
       <c r="C181" t="s">
-        <v>407</v>
+        <v>633</v>
       </c>
       <c r="D181" t="s">
-        <v>634</v>
+        <v>860</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -5652,13 +6556,13 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>181</v>
+        <v>407</v>
       </c>
       <c r="C182" t="s">
-        <v>408</v>
+        <v>634</v>
       </c>
       <c r="D182" t="s">
-        <v>635</v>
+        <v>861</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -5666,13 +6570,13 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>182</v>
+        <v>408</v>
       </c>
       <c r="C183" t="s">
-        <v>409</v>
+        <v>635</v>
       </c>
       <c r="D183" t="s">
-        <v>636</v>
+        <v>862</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -5680,13 +6584,13 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>183</v>
+        <v>409</v>
       </c>
       <c r="C184" t="s">
-        <v>410</v>
+        <v>636</v>
       </c>
       <c r="D184" t="s">
-        <v>637</v>
+        <v>863</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -5694,13 +6598,13 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>184</v>
+        <v>410</v>
       </c>
       <c r="C185" t="s">
-        <v>411</v>
+        <v>637</v>
       </c>
       <c r="D185" t="s">
-        <v>638</v>
+        <v>864</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -5708,13 +6612,13 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>185</v>
+        <v>411</v>
       </c>
       <c r="C186" t="s">
-        <v>412</v>
+        <v>638</v>
       </c>
       <c r="D186" t="s">
-        <v>639</v>
+        <v>865</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -5722,13 +6626,13 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>186</v>
+        <v>412</v>
       </c>
       <c r="C187" t="s">
-        <v>413</v>
+        <v>639</v>
       </c>
       <c r="D187" t="s">
-        <v>640</v>
+        <v>866</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -5736,13 +6640,13 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>187</v>
+        <v>413</v>
       </c>
       <c r="C188" t="s">
-        <v>414</v>
+        <v>640</v>
       </c>
       <c r="D188" t="s">
-        <v>641</v>
+        <v>867</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -5750,13 +6654,13 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>188</v>
+        <v>414</v>
       </c>
       <c r="C189" t="s">
-        <v>415</v>
+        <v>641</v>
       </c>
       <c r="D189" t="s">
-        <v>642</v>
+        <v>868</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -5764,13 +6668,13 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>189</v>
+        <v>415</v>
       </c>
       <c r="C190" t="s">
-        <v>416</v>
+        <v>642</v>
       </c>
       <c r="D190" t="s">
-        <v>643</v>
+        <v>869</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -5778,13 +6682,13 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>190</v>
+        <v>416</v>
       </c>
       <c r="C191" t="s">
-        <v>417</v>
+        <v>643</v>
       </c>
       <c r="D191" t="s">
-        <v>644</v>
+        <v>870</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -5792,13 +6696,13 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>191</v>
+        <v>417</v>
       </c>
       <c r="C192" t="s">
-        <v>418</v>
+        <v>644</v>
       </c>
       <c r="D192" t="s">
-        <v>645</v>
+        <v>871</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -5806,13 +6710,13 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>192</v>
+        <v>418</v>
       </c>
       <c r="C193" t="s">
-        <v>419</v>
+        <v>645</v>
       </c>
       <c r="D193" t="s">
-        <v>646</v>
+        <v>872</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -5820,13 +6724,13 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>193</v>
+        <v>419</v>
       </c>
       <c r="C194" t="s">
-        <v>420</v>
+        <v>646</v>
       </c>
       <c r="D194" t="s">
-        <v>647</v>
+        <v>873</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -5834,13 +6738,13 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>194</v>
+        <v>420</v>
       </c>
       <c r="C195" t="s">
-        <v>421</v>
+        <v>647</v>
       </c>
       <c r="D195" t="s">
-        <v>648</v>
+        <v>874</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -5848,13 +6752,13 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>195</v>
+        <v>421</v>
       </c>
       <c r="C196" t="s">
-        <v>422</v>
+        <v>648</v>
       </c>
       <c r="D196" t="s">
-        <v>649</v>
+        <v>875</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -5862,13 +6766,13 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>196</v>
+        <v>422</v>
       </c>
       <c r="C197" t="s">
-        <v>423</v>
+        <v>649</v>
       </c>
       <c r="D197" t="s">
-        <v>650</v>
+        <v>876</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -5876,13 +6780,13 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>197</v>
+        <v>423</v>
       </c>
       <c r="C198" t="s">
-        <v>424</v>
+        <v>650</v>
       </c>
       <c r="D198" t="s">
-        <v>651</v>
+        <v>877</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -5890,13 +6794,13 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>198</v>
+        <v>424</v>
       </c>
       <c r="C199" t="s">
-        <v>425</v>
+        <v>651</v>
       </c>
       <c r="D199" t="s">
-        <v>652</v>
+        <v>878</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -5904,13 +6808,13 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C200" t="s">
-        <v>426</v>
+        <v>652</v>
       </c>
       <c r="D200" t="s">
-        <v>653</v>
+        <v>879</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -5918,13 +6822,13 @@
         <v>143</v>
       </c>
       <c r="B201" t="s">
-        <v>143</v>
+        <v>369</v>
       </c>
       <c r="C201" t="s">
-        <v>370</v>
+        <v>596</v>
       </c>
       <c r="D201" t="s">
-        <v>597</v>
+        <v>823</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -5932,13 +6836,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>200</v>
+        <v>426</v>
       </c>
       <c r="C202" t="s">
-        <v>427</v>
+        <v>653</v>
       </c>
       <c r="D202" t="s">
-        <v>654</v>
+        <v>880</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -5946,13 +6850,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>201</v>
+        <v>427</v>
       </c>
       <c r="C203" t="s">
-        <v>428</v>
+        <v>654</v>
       </c>
       <c r="D203" t="s">
-        <v>655</v>
+        <v>881</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -5960,13 +6864,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>202</v>
+        <v>428</v>
       </c>
       <c r="C204" t="s">
-        <v>429</v>
+        <v>655</v>
       </c>
       <c r="D204" t="s">
-        <v>656</v>
+        <v>882</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -5974,13 +6878,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>203</v>
+        <v>429</v>
       </c>
       <c r="C205" t="s">
-        <v>430</v>
+        <v>656</v>
       </c>
       <c r="D205" t="s">
-        <v>657</v>
+        <v>883</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -5988,13 +6892,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>204</v>
+        <v>430</v>
       </c>
       <c r="C206" t="s">
-        <v>431</v>
+        <v>657</v>
       </c>
       <c r="D206" t="s">
-        <v>658</v>
+        <v>884</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -6002,13 +6906,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>205</v>
+        <v>431</v>
       </c>
       <c r="C207" t="s">
-        <v>432</v>
+        <v>658</v>
       </c>
       <c r="D207" t="s">
-        <v>659</v>
+        <v>885</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -6016,13 +6920,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>206</v>
+        <v>432</v>
       </c>
       <c r="C208" t="s">
-        <v>433</v>
+        <v>659</v>
       </c>
       <c r="D208" t="s">
-        <v>660</v>
+        <v>886</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -6030,13 +6934,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>207</v>
+        <v>433</v>
       </c>
       <c r="C209" t="s">
-        <v>434</v>
+        <v>660</v>
       </c>
       <c r="D209" t="s">
-        <v>661</v>
+        <v>887</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -6044,13 +6948,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>208</v>
+        <v>434</v>
       </c>
       <c r="C210" t="s">
-        <v>435</v>
+        <v>661</v>
       </c>
       <c r="D210" t="s">
-        <v>662</v>
+        <v>888</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -6058,13 +6962,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
       <c r="C211" t="s">
-        <v>436</v>
+        <v>662</v>
       </c>
       <c r="D211" t="s">
-        <v>663</v>
+        <v>889</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -6072,13 +6976,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>210</v>
+        <v>436</v>
       </c>
       <c r="C212" t="s">
-        <v>437</v>
+        <v>663</v>
       </c>
       <c r="D212" t="s">
-        <v>664</v>
+        <v>890</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -6086,13 +6990,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>211</v>
+        <v>437</v>
       </c>
       <c r="C213" t="s">
-        <v>438</v>
+        <v>664</v>
       </c>
       <c r="D213" t="s">
-        <v>665</v>
+        <v>891</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -6100,13 +7004,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>212</v>
+        <v>438</v>
       </c>
       <c r="C214" t="s">
-        <v>439</v>
+        <v>665</v>
       </c>
       <c r="D214" t="s">
-        <v>666</v>
+        <v>892</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -6114,13 +7018,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>213</v>
+        <v>439</v>
       </c>
       <c r="C215" t="s">
-        <v>440</v>
+        <v>666</v>
       </c>
       <c r="D215" t="s">
-        <v>667</v>
+        <v>893</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -6128,13 +7032,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>214</v>
+        <v>440</v>
       </c>
       <c r="C216" t="s">
-        <v>441</v>
+        <v>667</v>
       </c>
       <c r="D216" t="s">
-        <v>668</v>
+        <v>894</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -6142,13 +7046,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>215</v>
+        <v>441</v>
       </c>
       <c r="C217" t="s">
-        <v>442</v>
+        <v>668</v>
       </c>
       <c r="D217" t="s">
-        <v>669</v>
+        <v>895</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -6156,13 +7060,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>216</v>
+        <v>442</v>
       </c>
       <c r="C218" t="s">
-        <v>443</v>
+        <v>669</v>
       </c>
       <c r="D218" t="s">
-        <v>670</v>
+        <v>896</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -6170,13 +7074,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>217</v>
+        <v>443</v>
       </c>
       <c r="C219" t="s">
-        <v>444</v>
+        <v>670</v>
       </c>
       <c r="D219" t="s">
-        <v>671</v>
+        <v>897</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -6184,13 +7088,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>218</v>
+        <v>444</v>
       </c>
       <c r="C220" t="s">
-        <v>445</v>
+        <v>671</v>
       </c>
       <c r="D220" t="s">
-        <v>672</v>
+        <v>898</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -6198,13 +7102,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>219</v>
+        <v>445</v>
       </c>
       <c r="C221" t="s">
-        <v>446</v>
+        <v>672</v>
       </c>
       <c r="D221" t="s">
-        <v>673</v>
+        <v>899</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -6212,13 +7116,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>220</v>
+        <v>446</v>
       </c>
       <c r="C222" t="s">
-        <v>447</v>
+        <v>673</v>
       </c>
       <c r="D222" t="s">
-        <v>674</v>
+        <v>900</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -6226,13 +7130,13 @@
         <v>143</v>
       </c>
       <c r="B223" t="s">
-        <v>143</v>
+        <v>369</v>
       </c>
       <c r="C223" t="s">
-        <v>370</v>
+        <v>596</v>
       </c>
       <c r="D223" t="s">
-        <v>597</v>
+        <v>823</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -6240,13 +7144,13 @@
         <v>221</v>
       </c>
       <c r="B224" t="s">
-        <v>221</v>
+        <v>447</v>
       </c>
       <c r="C224" t="s">
-        <v>448</v>
+        <v>674</v>
       </c>
       <c r="D224" t="s">
-        <v>675</v>
+        <v>901</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -6254,13 +7158,13 @@
         <v>222</v>
       </c>
       <c r="B225" t="s">
-        <v>222</v>
+        <v>448</v>
       </c>
       <c r="C225" t="s">
-        <v>449</v>
+        <v>675</v>
       </c>
       <c r="D225" t="s">
-        <v>676</v>
+        <v>902</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -6268,13 +7172,13 @@
         <v>223</v>
       </c>
       <c r="B226" t="s">
-        <v>223</v>
+        <v>449</v>
       </c>
       <c r="C226" t="s">
-        <v>450</v>
+        <v>676</v>
       </c>
       <c r="D226" t="s">
-        <v>677</v>
+        <v>903</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -6282,13 +7186,13 @@
         <v>224</v>
       </c>
       <c r="B227" t="s">
-        <v>224</v>
+        <v>450</v>
       </c>
       <c r="C227" t="s">
-        <v>451</v>
+        <v>677</v>
       </c>
       <c r="D227" t="s">
-        <v>678</v>
+        <v>904</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -6296,13 +7200,13 @@
         <v>225</v>
       </c>
       <c r="B228" t="s">
-        <v>225</v>
+        <v>451</v>
       </c>
       <c r="C228" t="s">
-        <v>452</v>
+        <v>678</v>
       </c>
       <c r="D228" t="s">
-        <v>679</v>
+        <v>905</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -6310,13 +7214,13 @@
         <v>226</v>
       </c>
       <c r="B229" t="s">
-        <v>226</v>
+        <v>452</v>
       </c>
       <c r="C229" t="s">
-        <v>453</v>
+        <v>679</v>
       </c>
       <c r="D229" t="s">
-        <v>680</v>
+        <v>906</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -6324,13 +7228,13 @@
         <v>227</v>
       </c>
       <c r="B230" t="s">
-        <v>227</v>
+        <v>453</v>
       </c>
       <c r="C230" t="s">
-        <v>454</v>
+        <v>680</v>
       </c>
       <c r="D230" t="s">
-        <v>681</v>
+        <v>907</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -6338,13 +7242,13 @@
         <v>228</v>
       </c>
       <c r="B231" t="s">
-        <v>228</v>
+        <v>454</v>
       </c>
       <c r="C231" t="s">
-        <v>455</v>
+        <v>681</v>
       </c>
       <c r="D231" t="s">
-        <v>682</v>
+        <v>908</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -6352,13 +7256,13 @@
         <v>229</v>
       </c>
       <c r="B232" t="s">
-        <v>229</v>
+        <v>455</v>
       </c>
       <c r="C232" t="s">
-        <v>456</v>
+        <v>682</v>
       </c>
       <c r="D232" t="s">
-        <v>683</v>
+        <v>909</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -6366,13 +7270,13 @@
         <v>230</v>
       </c>
       <c r="B233" t="s">
-        <v>230</v>
+        <v>456</v>
       </c>
       <c r="C233" t="s">
-        <v>457</v>
+        <v>683</v>
       </c>
       <c r="D233" t="s">
-        <v>684</v>
+        <v>910</v>
       </c>
     </row>
   </sheetData>

--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_angel_1_1.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_angel_1_1.xlsx
@@ -3096,7 +3096,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="크루아상"]  잠만 잠만! 됐다. 제대로 맸으니 출발하자
+    <t xml:space="preserve">[name="크루아상"]  잠만 잠만! 됐다. 제대로 맸으니 출발하자.
 </t>
   </si>
   <si>
